--- a/analysis/dive_sites_details.xlsx
+++ b/analysis/dive_sites_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12576,10 +12576,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E462" t="inlineStr"/>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
-      <c r="H462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12602,10 +12598,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E463" t="inlineStr"/>
-      <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12628,10 +12620,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12654,10 +12642,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E465" t="inlineStr"/>
-      <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -12680,10 +12664,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E466" t="inlineStr"/>
-      <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -12706,10 +12686,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -12732,9 +12708,6 @@
           <t>Beach,, Reef,, Channel</t>
         </is>
       </c>
-      <c r="E468" t="inlineStr"/>
-      <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6f/35/6f3515e5304f282ff3e5b437eaeb41a7.webp</t>
@@ -12762,9 +12735,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E469" t="inlineStr"/>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6e/3e/6e3e6dfe4df47a11b21da8addd58d2dc.webp</t>
@@ -12792,10 +12762,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E470" t="inlineStr"/>
-      <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -12818,9 +12784,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E471" t="inlineStr"/>
-      <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/29/06/29069c271e94b669ce48ff0ce7964aa6.webp</t>
@@ -12848,9 +12811,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E472" t="inlineStr"/>
-      <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/0d/73/0d73e38b006230a5697d76595a0e225d.webp</t>
@@ -12878,10 +12838,6 @@
           <t>Reef</t>
         </is>
       </c>
-      <c r="E473" t="inlineStr"/>
-      <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -12904,10 +12860,6 @@
           <t>Lake</t>
         </is>
       </c>
-      <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -12930,9 +12882,6 @@
           <t>Wreck,, Drift,, Reef,, Wall</t>
         </is>
       </c>
-      <c r="E475" t="inlineStr"/>
-      <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/de/10/de103fd1a4c312c81f422ec93c5dad26.webp</t>
@@ -12960,9 +12909,6 @@
           <t>Drift,, Reef,, Wall</t>
         </is>
       </c>
-      <c r="E476" t="inlineStr"/>
-      <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/a3/7e/a37e7c327b4b643bd3ad79fe97acc5bc.webp</t>
@@ -12990,9 +12936,6 @@
           <t>Cave,, Drift,, Reef,, Wall</t>
         </is>
       </c>
-      <c r="E477" t="inlineStr"/>
-      <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/48/b2/48b211179acede5045daee3aef11777b.webp</t>
@@ -13020,9 +12963,6 @@
           <t>Drift,, Reef,, Wall</t>
         </is>
       </c>
-      <c r="E478" t="inlineStr"/>
-      <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/35/3f/353f1d3a7afa226dae5aef966259700d.webp</t>
@@ -13050,10 +12990,6 @@
           <t>Beach</t>
         </is>
       </c>
-      <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
-      <c r="H479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -13076,10 +13012,6 @@
           <t>Beach,, Channel</t>
         </is>
       </c>
-      <c r="E480" t="inlineStr"/>
-      <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -13102,14 +13034,8574 @@
           <t>Lake</t>
         </is>
       </c>
-      <c r="E481" t="inlineStr"/>
-      <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
           <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/58/a7/58a79d4c1e91bd657cc98eec8f374665.webp</t>
         </is>
       </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/south-reef/</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>South Reef</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>5.96149, 116.01292</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/the-rock/</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>The Rock</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>5.96755, 116.01228</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/genteng-kecil-house-reef-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Genteng Kecil House Reef, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-5.62368, 106.54808</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Beach,, Reef,, Channel</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6f/35/6f3515e5304f282ff3e5b437eaeb41a7.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/genteng-kecil-reef-1-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Genteng Kecil Reef 1, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-5.62446, 106.54923</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6e/3e/6e3e6dfe4df47a11b21da8addd58d2dc.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/genteng-kecil-west-reef-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Genteng Kecil, West Reef, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-5.62478, 106.54105</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/bunder-1-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Bunder 1, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-5.62812, 106.57409</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/29/06/29069c271e94b669ce48ff0ce7964aa6.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/bunder-2-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Bunder 2, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-5.62757, 106.57045</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/0d/73/0d73e38b006230a5697d76595a0e225d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/matahari-reef-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Matahari Reef, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-5.60702, 106.54189</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/blue-water-park/</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Blue Water Park</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>33.29660, -86.81656</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/saudi-arabia/jackson-reef-straits-of-tiran/</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Jackson Reef - Straits of Tiran</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>28.00615, 34.47158</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Wreck,, Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/de/10/de103fd1a4c312c81f422ec93c5dad26.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/wood-house-straits-of-tiran/</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Wood House - Straits of Tiran</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>28.00115, 34.46557</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/a3/7e/a37e7c327b4b643bd3ad79fe97acc5bc.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/thomas-reef-straits-of-tiran/</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Thomas Reef - Straits of Tiran</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>27.99228, 34.46094</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Cave,, Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/48/b2/48b211179acede5045daee3aef11777b.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/gordon-reef-straits-of-tiran/</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Gordon Reef - Straits of Tiran</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>27.98667, 34.45210</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/35/3f/353f1d3a7afa226dae5aef966259700d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/dover-ymca/</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Dover YMCA</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>39.57304, -76.73767</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/indian-river-inlet/</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Indian River Inlet</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>38.59180, -75.16838</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Beach,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/vinkeveense-plas/</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Vinkeveense Plas</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>52.14064, 4.57719</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/58/a7/58a79d4c1e91bd657cc98eec8f374665.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/red-sea-college-house-reef/</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Red Sea College - House Reef</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>27.90939, 34.32711</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/53/0e/530e20a3fc83d96a094ff1bb31ab0372.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/ras-zaatar-ras-mohammed/</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Ras Za'atar - Ras Mohammed</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>27.76665, 34.25589</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Cave,, Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/c9/9a/c99a9196415fb32d0ecc8b9d7b1bab26.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/anemone-city-ras-mohammed/</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Anemone City - Ras Mohammed</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>27.72707, 34.25845</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/ec/6a/ec6a82dddae352546a0a4ebbcf4e7c18.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/pulau-genteng-besar-pulau-seribu-jakarta/</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Pulau Genteng Besar, Pulau Seribu, Jakarta</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-5.61705, 106.54846</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/thailand/hin-muang/</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Hin Muang</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>7.15942, 98.83132</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/anthias-divers-house-reef/</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Anthias Divers House Reef</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>27.91369, 34.33104</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/shark-island-2/</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Shark Island</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>25.35207, 56.37852</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/f1/fb/f1fb682e91f074e4ded8d38f9a011d24.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/hole-in-the-wall/</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Hole in the Wall</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>25.34085, 56.37819</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/b7/3c/b73c6adf71ca080d5d5e3c798da1637b.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/martini-wall/</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Martini Wall</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>25.33716, 56.38068</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2e/57/2e57fda5f20d404e6851046b91b01ff6.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/martini-rock/</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Martini Rock</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>25.33553, 56.38145</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/snoopy-island/</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Snoopy Island</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>25.49256, 56.36411</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/ab/14/ab149f639a218a6507eb520e8c1bccdd.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/dibba-island/</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Dibba Island</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>25.60326, 56.35122</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/e6/03/e603b7aa0f1ba313ae76f247a3de8bb5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/coral-gardens-2/</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Coral Gardens</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>25.35380, 56.38081</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/anenome-gardens/</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Anenome Gardens</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>25.35194, 56.38008</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/29/a9/29a93acb5e2bd8568a539f564a29ccee.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/inchcape-2/</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Inchcape 2</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>25.33838, 56.38068</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/06/de/06de4dc779a0a9e081790081ff7dbc35.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/artificial-reef-2/</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Artificial Reef</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>25.60426, 56.34982</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Wreck,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/islas-marietas/</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Islas Marietas</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>20.69639, -105.56831</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Cave,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/f7/81/f78159c5b5c5b2070fa3bfca7c1dab87.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/cuevas-del-cabo-de-salou/</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Cuevas del cabo de salou</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>41.05541, 1.18069</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/wreck-vapor-del-miracle/</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Wreck Vapor del Miracle</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>41.10581, 1.26901</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/5d/2f/5d2f208bdfcb342d0ee25fd2a0f53121.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/cristo-degli-abissi/</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Cristo degli Abissi</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>44.31352, 9.17516</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6c/96/6c96e490716f595a846692e963bd8c02.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/greece/marades/</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>marades</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>37.66099, 24.29523</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/el-morro/</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>El Morro</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>20.67053, -105.65054</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2d/fe/2dfe8d69460e427bb8e5d358dfcb1a75.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-serenissima/</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Tegnue "Serenissima"</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>45.19534, 12.43618</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-adria/</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Tegnue "Adria"</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>45.21179, 12.44957</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/martini-wall/</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Martini Wall</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>25.33716, 56.38068</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2e/57/2e57fda5f20d404e6851046b91b01ff6.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/martini-rock/</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Martini Rock</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>25.33553, 56.38145</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/snoopy-island/</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Snoopy Island</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>25.49256, 56.36411</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/ab/14/ab149f639a218a6507eb520e8c1bccdd.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/dibba-island/</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Dibba Island</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>25.60326, 56.35122</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/e6/03/e603b7aa0f1ba313ae76f247a3de8bb5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/coral-gardens-2/</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Coral Gardens</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>25.35380, 56.38081</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/anenome-gardens/</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Anenome Gardens</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>25.35194, 56.38008</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/29/a9/29a93acb5e2bd8568a539f564a29ccee.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/inchcape-2/</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Inchcape 2</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>25.33838, 56.38068</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/06/de/06de4dc779a0a9e081790081ff7dbc35.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-arab-emirates/artificial-reef-2/</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Artificial Reef</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>25.60426, 56.34982</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Wreck,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/islas-marietas/</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Islas Marietas</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>20.69639, -105.56831</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Cave,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/f7/81/f78159c5b5c5b2070fa3bfca7c1dab87.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/cuevas-del-cabo-de-salou/</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Cuevas del cabo de salou</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>41.05541, 1.18069</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/wreck-vapor-del-miracle/</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Wreck Vapor del Miracle</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>41.10581, 1.26901</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/5d/2f/5d2f208bdfcb342d0ee25fd2a0f53121.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/cristo-degli-abissi/</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Cristo degli Abissi</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>44.31352, 9.17516</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6c/96/6c96e490716f595a846692e963bd8c02.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/greece/marades/</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>marades</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>37.66099, 24.29523</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/el-morro/</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>El Morro</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>20.67053, -105.65054</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2d/fe/2dfe8d69460e427bb8e5d358dfcb1a75.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-serenissima/</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Tegnue "Serenissima"</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>45.19534, 12.43618</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-adria/</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Tegnue "Adria"</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>45.21179, 12.44957</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-padova/</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Tegnue "Padova"</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>45.19970, 12.40597</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/stella-marisferro/</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Stella Maris/Ferro</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>45.12780, 12.64526</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/torbogen/</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Torbogen</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>39.39032, 3.25116</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/4a/ba/4aba9cd9d8b757478af47a789a9b1970.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/st-andrews-jetties/</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>St. Andrews Jetties</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>30.12477, -85.73299</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/9a/40/9a40c2d9d99d709cd831213fbf0186de.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/crosses/</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Crosses</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-34.28951, 18.82226</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/a8/34/a8340b65cead201cc9de012a536c2451.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/coral-gardens-3/</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Coral Gardens</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-34.30183, 18.81307</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/f9/69/f9690f80b4bc9f866638117e96d79f9b.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/balcony/</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Balcony</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-34.36880, 18.81924</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/54/b7/54b7856d489fe7aa0430ed6eb4400a8e.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/sassello/</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Sassello</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>46.47473, 8.63660</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/france/chez-hortense/</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Chez Hortense</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>44.63128, -1.24416</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/le-macchine/</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>LE MACCHINE</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>45.88096, 9.34174</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Beach,, Lake,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/riva-di-gittana-autobotte/</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>RIVA DI GITTANA - AUTOBOTTE</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>46.02800, 9.28696</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Lake,, Wall</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/84/cf/84cf82449485347c91966034df4eec51.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/rapa-nui-moregallo/</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>RAPA NUI - MOREGALLO</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>45.87800, 9.34962</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Lake</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/38/98/389896c0ba01b33e2f647c86c2393f71.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/austria/regionalbad-ganserndorf/</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Regionalbad Gänserndorf</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>48.34162, 16.72105</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/austria/neufeldersee-2/</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Neufeldersee</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>47.97521, 16.27453</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/punta-santa-anna/</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Punta Santa Anna</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>41.67371, 2.80190</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/pinnacle/</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Pinnacle</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-34.17449, 18.83326</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/le-jardin-des-kiosques/</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>le jardin des kiosques</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-21.18375, 55.28417</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/le-banc-dore/</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>le banc doré</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-21.18521, 55.28466</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/les-arches/</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>les arches</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-21.17987, 55.28393</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/bosys-canyon/</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Bosy's canyon</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-21.19916, 55.27946</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/le-nez-du-pharaon/</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>le nez du pharaon</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-21.19367, 55.26979</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/la-pointe-au-sel/</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>la pointe au sel</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-21.20098, 55.27157</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/le-sec-jaune/</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>le sec jaune</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-21.20585, 55.27990</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Cave,, Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/larche-de-noel/</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>l'arche de noel</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-21.21098, 55.28286</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-delfino-bianco-free-diver/</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Tegnue "Delfino Bianco - Free Diver"</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>45.21204, 12.41798</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/nave-cannoniera-2/</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Nave Cannoniera</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>45.04976, 12.53815</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-gs-monselice/</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Tegnue "G.S Monselice"</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>45.20188, 12.37816</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-mestre/</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Tegnue "Mestre"</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>45.21518, 12.35378</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-cittadella/</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Tegnue "Cittadella"</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>45.22159, 12.36099</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-montagnana/</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Tegnue "Montagnana"</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>45.22147, 12.38485</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-rovigo/</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Tegnue "Rovigo"</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>45.22389, 12.40837</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/pierbaai-reef-the-dive-bus-house-reef/</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Pierbaai Reef (The Dive Bus House Reef)</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>12.08950, -68.90515</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>59 feet / 18 meters</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/69/4d/694dcb9a78cbdb948ec6a4ced6a65c82.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-medoacus-sub-asd-subshark/</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Tegnue "Medoacus Sub" - "A.S.D. SubShark"</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>45.21506, 12.39876</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/vaersenbaai-kokomo-beach/</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Vaersenbaai (Kokomo Beach)</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>12.16052, -69.00536</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>98 feet / 30 meters</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/54/e9/54e95d9cb6d2095e2ce71b4f00fb1994.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/france/la-piscine-de-donville/</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>La Piscine de Donville</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>48.84948, -1.58812</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/porto-mari/</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Porto Mari</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>12.21191, -69.08612</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>98 feet / 30 meters</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/4e/f3/4ef3b4760e6b14961eb1afe7774e2eb5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/peschereccio-ferreo/</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Peschereccio Ferreo</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>45.18107, 12.59033</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/playa-piscado/</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Playa Piscado</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>12.36956, -69.15407</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Turtle</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>59 feet / 18 meters</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/3b/ab/3babf5e4957557b214e091c83c19f329.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/cuevas-de-cantarrijan/</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>CUEVAS DE CANTARRIJÁN</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>36.73783, -3.77830</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/90/80/9080e38a8e2e4b177b7f6bd6453b970a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/la-huerta/</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>LA HUERTA</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>36.73107, -3.77117</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/3d/44/3d44ea36a092ed845d7690109f92ae6a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/territorio-congrio/</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>TERRITORIO CONGRIO</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>36.72940, -3.76792</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-molinos/</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>LOS MOLINOS</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>36.73032, -3.76320</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/45/e9/45e98e4276e607a3ce70980ed4f25208.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/calaiza/</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>CALAIZA</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>36.73336, -3.76217</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-pasadizos/</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>LOS PASADIZOS</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>36.73935, -3.78542</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-cittadella/</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Tegnue "Cittadella"</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>45.22159, 12.36099</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-montagnana/</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Tegnue "Montagnana"</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>45.22147, 12.38485</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-rovigo/</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Tegnue "Rovigo"</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>45.22389, 12.40837</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/pierbaai-reef-the-dive-bus-house-reef/</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Pierbaai Reef (The Dive Bus House Reef)</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>12.08950, -68.90515</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>59 feet / 18 meters</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/69/4d/694dcb9a78cbdb948ec6a4ced6a65c82.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/tegnue-medoacus-sub-asd-subshark/</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Tegnue "Medoacus Sub" - "A.S.D. SubShark"</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>45.21506, 12.39876</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/vaersenbaai-kokomo-beach/</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Vaersenbaai (Kokomo Beach)</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>12.16052, -69.00536</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>98 feet / 30 meters</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/54/e9/54e95d9cb6d2095e2ce71b4f00fb1994.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/france/la-piscine-de-donville/</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>La Piscine de Donville</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>48.84948, -1.58812</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/porto-mari/</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Porto Mari</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>12.21191, -69.08612</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>98 feet / 30 meters</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/4e/f3/4ef3b4760e6b14961eb1afe7774e2eb5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/peschereccio-ferreo/</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Peschereccio Ferreo</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>45.18107, 12.59033</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/playa-piscado/</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Playa Piscado</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>12.36956, -69.15407</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>Turtle</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>59 feet / 18 meters</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/3b/ab/3babf5e4957557b214e091c83c19f329.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/cuevas-de-cantarrijan/</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>CUEVAS DE CANTARRIJÁN</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>36.73783, -3.77830</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/90/80/9080e38a8e2e4b177b7f6bd6453b970a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/la-huerta/</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>LA HUERTA</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>36.73107, -3.77117</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/3d/44/3d44ea36a092ed845d7690109f92ae6a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/territorio-congrio/</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>TERRITORIO CONGRIO</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>36.72940, -3.76792</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-molinos/</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>LOS MOLINOS</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>36.73032, -3.76320</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/45/e9/45e98e4276e607a3ce70980ed4f25208.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/calaiza/</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>CALAIZA</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>36.73336, -3.76217</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-pasadizos/</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>LOS PASADIZOS</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>36.73935, -3.78542</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/halik/</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Halik</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-8.33686, 116.03837</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Cave,, Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/c3/0b/c30bbb183c29e7d78ebf86265c4c71ae.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/hans-reef/</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Hans Reef</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-8.34824, 116.08704</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/b2/5d/b25dff5e97913c75bd0b80ea00197796.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/blousteen/</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Blousteen</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-34.27233, 18.83816</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/containers-bay/</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Containers Bay</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-34.37893, 18.84387</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/sas-fleur-wreck/</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>SAS Fleur Wreck</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-34.18880, 18.58509</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/york-shoal/</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>York Shoal</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-34.15955, 18.61977</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/clan-stuart/</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Clan Stuart</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-34.17204, 18.42952</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/sunny-cove/</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Sunny Cove</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-34.14420, 18.43806</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/reunion/maison-verte/</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Maison verte</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-21.19345, 55.28374</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/long-beach/</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-34.18701, 18.42675</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/7c/45/7c459960cf98abc6ea7dd061f1acea91.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/baumgarten-immensee/</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Baumgarten Immensee</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>47.10490, 8.47560</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/costa-rica/las-catalinas-classico/</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Las Catalinas Classico</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>10.47908, -85.87130</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Reef,, Wall,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/rambler-rock/</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Rambler Rock</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-34.18312, 18.45686</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/costa-rica/las-catalinas-north/</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Las Catalinas North</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>10.47829, -85.86897</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/friskies-pinnacle/</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Friskies Pinnacle</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-34.18113, 18.57788</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/tivoli-pinnacles/</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Tivoli Pinnacles</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-34.18113, 18.58749</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/castor-rock/</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Castor Rock</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-34.17318, 18.57994</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/punta-de-la-mona/</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>PUNTA DE LA MONA</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>36.71926, -3.72722</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/75/a6/75a64291369583a30eb708233333c62a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/ensenada-de-marina/</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>ENSENADA DE MARINA</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>36.72005, -3.72826</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/93/1d/931d57a7fca6984ff02c1675d63dbf80.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/roqueo-de-los-14-marina-del-este-right-bay/</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>ROQUEO DE LOS 14 / MARINA DEL ESTE RIGHT BAY</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>36.72130, -3.72829</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/eb/97/eb97bcf58db11c6c860c8c16edd3371d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/piedra-de-la-higuera/</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>PIEDRA DE LA HIGUERA</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>36.72064, -3.72771</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/d6/d1/d6d1a00b1ef81c4f2a0dfb75555a244f.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/punta-del-vapor-marina-del-este-left-side/</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>PUNTA DEL VAPOR / MARINA DEL ESTE LEFT SIDE</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>36.72291, -3.72661</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/cc/46/cc46498cfbce666ff46756ae8be540c1.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/livingstone/</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Livingstone</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-34.17204, 18.57342</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-candelabros/</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>LOS CANDELABROS</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>36.73193, -3.77371</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2a/d4/2ad4f539a8e730ba7350932cbb72dfc2.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/puerto-rico/desecheo-island/</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Desecheo Island</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>18.37825, -67.48077</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/d3/a9/d3a9b662cd7bc50fef6fd0ae2200ef62.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/puerto-rico/ancones/</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Ancones</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>18.43525, -67.15788</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/79/63/796320a62478a4c061b8c401ac9b9ffb.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/puerto-rico/snorkeling-reef/</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Snorkeling Reef</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>18.04077, -67.20783</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/mikes-point/</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Mike's Point</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-34.38085, 18.82653</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/whirlpool-cove/</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Whirlpool Cove</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-34.28289, 18.82627</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/phoenix-shoal/</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Phoenix Shoal</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-34.19063, 18.44881</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/ammunition-barges/</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ammunition Barges</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-34.19377, 18.45446</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/noahs-ark/</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Noah's Ark</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-34.19633, 18.45789</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/dangerous-dough-reef/</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Dangerous Dough Reef</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-34.19739, 18.46021</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/windmill-beach/</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Windmill Beach</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-34.20048, 18.45602</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/a-frame/</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>A-Frame</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-34.20438, 18.45802</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/sas-pietermaritsburg/</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>SAS Pietermaritsburg</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-34.22309, 18.47488</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/millers-point/</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Millers Point</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-34.23141, 18.47606</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/partridge-point/</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Partridge Point</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-34.25864, 18.48252</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/all-dive-sits-surrounding-gem-kapas-island/</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>All dive sits surrounding Gem &amp; Kapas Island</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>5.23302, 103.26076</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/divearound-ruinerwold/</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>divearound Ruinerwold</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>52.70645, 6.23320</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/divearound-dwingeloo/</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>divearound Dwingeloo</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>52.81106, 6.37207</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/de-kuilen/</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>De Kuilen</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>51.69814, 5.74314</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Beach,, Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/pulau-renggis/</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Pulau Renggis</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>2.80944, 104.13546</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/soyak-island/</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Soyak Island</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>2.87528, 104.14726</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/whirlpool-cove/</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Whirlpool Cove</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-34.28289, 18.82627</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/phoenix-shoal/</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Phoenix Shoal</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-34.19063, 18.44881</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/ammunition-barges/</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Ammunition Barges</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-34.19377, 18.45446</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/noahs-ark/</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Noah's Ark</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-34.19633, 18.45789</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/dangerous-dough-reef/</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Dangerous Dough Reef</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-34.19739, 18.46021</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/windmill-beach/</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Windmill Beach</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-34.20048, 18.45602</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/a-frame/</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>A-Frame</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-34.20438, 18.45802</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/sas-pietermaritsburg/</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>SAS Pietermaritsburg</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-34.22309, 18.47488</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/millers-point/</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Millers Point</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-34.23141, 18.47606</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/south-africa/partridge-point/</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Partridge Point</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-34.25864, 18.48252</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/all-dive-sits-surrounding-gem-kapas-island/</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>All dive sits surrounding Gem &amp; Kapas Island</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>5.23302, 103.26076</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/divearound-ruinerwold/</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>divearound Ruinerwold</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>52.70645, 6.23320</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/divearound-dwingeloo/</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>divearound Dwingeloo</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>52.81106, 6.37207</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/de-kuilen/</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>De Kuilen</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>51.69814, 5.74314</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Beach,, Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/pulau-renggis/</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Pulau Renggis</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2.80944, 104.13546</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/soyak-island/</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Soyak Island</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>2.87528, 104.14726</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/batu-malang/</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Batu Malang</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>2.90322, 104.10443</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/77/9d/779d02da0d510bf65a1000662f1fc446.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-kingdom/capernwray/</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Capernwray</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>54.13523, -2.72519</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/03/e3/03e34f512b57553b93226590f700eadb.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/thailand/richelieu-rock-2/</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Richelieu Rock</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>9.36280, 98.02204</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/thailand/koh-bon-similan-national-park/</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Koh Bon Similan National Park</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>8.82785, 97.79508</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/thailand/koh-tachai-similan-national-park/</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Koh Tachai Similan National Park</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>9.05802, 97.81172</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-kingdom/vobster-quay/</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Vobster Quay</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>51.24612, -2.42472</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/canyon-2/</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Canyon</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>28.55472, 34.52091</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Cave,, Wall,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/abu-helal/</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Abu Helal</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>28.54221, 34.51669</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/eel-garden-3/</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Eel Garden</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>28.50503, 34.52009</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/trinidad-and-tobago/flying-manta/</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Flying Manta</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>11.30670, -60.50789</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/trinidad-and-tobago/tde-special/</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>TDE Special</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>11.29256, -60.50643</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/trinidad-and-tobago/round-table/</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Round Table</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>11.30215, -60.52845</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/trinidad-and-tobago/japanese-gardens/</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Japanese Gardens</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>11.29710, -60.51973</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/trinidad-and-tobago/angel-reef/</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Angel Reef</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>11.30156, -60.51995</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/uscgc-bibb/</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>USCGC Bibb</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>2459.71000, 8022.77000</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/conch-wall/</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Conch Wall</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>2457.38000, 8027.39000</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/keeling-islands/benwood-wreck/</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Benwood Wreck</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>20503.14400, 8019.93000</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/keeling-islands/french-reef/</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>French Reef</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>2502.24000, 8020.66000</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/crocker-reef/</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Crocker Reef</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>2454.83600, 8030.91400</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/davis-reef/</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Davis Reef</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>2455.34000, 8030.00000</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/sheraton-caverns-2/</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Sheraton Caverns</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>21.87341, -159.46627</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/85/fc/85fcd3c55fd7f8152b2d30193a4395a5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/el-galeon/</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>El Galeon</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>36.47263, -4.98643</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/playa-seghers/</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Playa Seghers</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>36.41599, -5.16902</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/9f/5d/9f5d0b4495943119166026c18d8e6bb0.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/slovakia/diveinn-potapacsky-klub/</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>DiveINN - Potápačský klub</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>48.21568, 17.43304</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/ras-abu-galum-south/</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Ras Abu Galum South</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>28.61177, 34.55339</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/ras-abu-galum-north/</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Ras Abu Galum North</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>28.61497, 34.55996</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/red-tooth-trigger-bay/</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Red Tooth Trigger Bay</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>28.61988, 34.56652</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Beach,, Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/tiger-reef/</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Tiger Reef</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>28.56643, 34.53132</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/rick-s-reef/</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Rick´s Reef</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>28.55743, 34.52375</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Beach,, Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/lighthouse-3/</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Lighthouse</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>28.49902, 34.51988</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/bannerfish-bay/</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Bannerfish Bay</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>28.49890, 34.51875</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Beach,, Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/mashraba/</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Mashraba</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>28.49520, 34.51702</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/napoleon-reef/</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Napoleon Reef</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>28.47083, 34.50760</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/republic-of-mauritius/djabeda/</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Djabeda</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>-19.94576, 57.62054</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/silsersee-plaun-da-lej/</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Silsersee / Plaun Da Lej</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>46.41977, 9.72722</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/speicherbecken-geeste/</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Speicherbecken Geeste</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>52.59458, 7.27882</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Beach,, Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/playa-las-vistas/</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Playa Las Vistas</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>28.04941, -16.72180</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/97/e9/97e99bda1aa64bcdde0ba6e94175f17c.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/montana-guaza/</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Montaña Guaza</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>28.03227, -16.70928</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/india/fresh-water-dive-spot-thiruvankulam/</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Fresh Water Dive Spot Thiruvankulam</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>9.95504, 76.38792</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/india/neils-rock/</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Neil's Rock</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>9.66709, 76.20735</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/egg-arth/</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Egg, Arth</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>47.07660, 8.52590</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/kreidsee-hemmoor/</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Kreidsee, Hemmoor</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>53.42000, 9.80000</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Lake,, Wall</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/d2/4f/d24f3113e42b1c4ea8434798eb51664a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/chile/kreidesee-hemmoor-germany/</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Kreidesee, Hemmoor, Germany</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>70168.86200, 50300.78700</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Lake,, Wall</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/99/06/9906d397172c456cbd6b790eea044490.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/lodestone-reef/</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Lodestone Reef</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>-18.69487, 147.09290</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/keeper-reef/</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Keeper Reef</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>-18.74649, 147.26615</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/thalassa-house-reef/</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Thalassa House Reef</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>1.53312, 124.83205</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/museum-of-underwater-art-moua-at-john-brewer-reef/</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Museum of Underwater Art (MOUA) at John Brewer Reef</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>-18.62445, 147.05544</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/molas-shipwreck/</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Molas Shipwreck</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>1.53385, 124.83088</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Wreck,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/big-broadhurst-reef/</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Big Broadhurst Reef</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-18.92967, 147.71873</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/black-rock/</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Black Rock</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>1.53478, 124.82963</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/timur/</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Timur</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>1.60414, 124.78512</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/sahaung-point/</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Sahaung Point</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>1.74116, 125.16386</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/batu-mandi/</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Batu Mandi</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>1.68780, 125.16213</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/city-extra/</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>City Extra</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>1.44129, 124.74175</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/critter-circus/</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Critter Circus</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>1.41932, 124.70289</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/varella-wreck/</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Varella Wreck</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>3.25569, 103.76038</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/stingray-city-2/</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Stingray City</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>4.55307, 118.92786</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/lobster-wall-2/</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Lobster Wall</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>4.58924, 118.86737</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Drift</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/playa-grande/</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Playa Grande</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>28.91882, -13.66488</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/bb/e8/bbe8ab11f39d801dc49ccc52b2320d13.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/veril-de-fariones/</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Veril de Fariones</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>28.91781, -13.66582</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/1b/32/1b3230efe729c92e19c98f8c2afc0eff.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/los-arcos-2/</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Los Arcos</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>28.91733, -13.66384</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/la-pared/</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>La Pared</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>28.91712, -13.66078</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/captain-mikes/</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Captain Mike's</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>26.89945, -80.03416</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/tunnels-2/</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Tunnels</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>26.94870, -80.04493</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/wreck-trek/</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Wreck Trek</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>26.95604, -80.02313</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/c1/42/c142841b0ca7c4e039022a3e69f6b7c7.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/haigh-quarry/</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Haigh Quarry</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>41.14842, -87.81595</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/vista-point-lake-pleasant/</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Vista Point, Lake Pleasant</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>33.85504, -112.25585</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/china/beijing-jellyfish-lake/</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Beijing jellyfish lake</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>39.31000, 115.47000</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/a9/dc/a9dc0a70984ba72fdfd8bdac53d59a60.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/china/underwater-great-wall/</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Underwater Great Wall</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>40.41600, 118.26610</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/8f/e0/8fe0a358585c8191429799cba9cde701.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/china/beijing-golden-fish-spring/</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Beijing golden fish spring</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>39.68900, 115.97000</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>River</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/59/a8/59a8818a4c1c471a7fbc3ec08dc9da05.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/honduras/cara-a-cara-marcos-place-shark-dive/</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Cara-a-Cara Marco's Place Shark Dive</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>16.30432, -86.50532</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/norway/saltstraumen/</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Saltstraumen</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>67.23069, 14.61388</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Beach,, Drift,, Reef,, Wall,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/caves-2/</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Caves</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>28.41668, 34.45607</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/egypt/el-shugarat/</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>El Shugarat</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>28.35598, 34.43992</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Drift,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-kingdom/st-abbs-marine-park/</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>St Abbs Marine Park</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>55.94305, -2.16431</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Wreck,, Cave,, Beach,, Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/grotta-dei-gamberi-4/</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Grotta dei Gamberi</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>38.16682, 12.77008</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/cala-rossa-shoal/</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Cala Rossa Shoal</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>38.16068, 12.77126</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/cataratta-shoal/</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Cataratta Shoal</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>38.15339, 12.77796</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/kent-wreck/</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Kent Wreck</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>38.15467, 12.77701</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/punta-negra-wall/</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Punta Negra Wall</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>38.15923, 12.72307</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/capua-wreck/</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Capua Wreck</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>38.08154, 12.81701</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/salzgittersee/</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Salzgittersee</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>52.15428, 10.29943</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/tauchsportzentrum-nordhausen/</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Tauchsportzentrum Nordhausen</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>51.48145, 10.80945</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Wreck,, Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/bulgaria/the-anchor-2/</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>The Anchor</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>43.13644, 27.94246</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6b/de/6bde97902a46e2395578de97ab3ff1f9.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/el-condecito/</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>El Condecito</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>28.00240, -16.70068</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/5d/e4/5de41d67d96c6d7ea2967c9be3975df5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/coral-habitat/</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Coral Habitat</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>12.19775, -69.07897</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/rif-st-marie/</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Rif St Marie</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>12.19846, -69.07908</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/red-coral-playa-chica-wall/</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Red Coral (Playa Chica Wall)</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>28.91812, -13.66918</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6b/0c/6b0c789039137a9f0de729a2ddcac855.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/loberia-punta-loma/</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Loberia Punta Loma</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>-42.82471, -64.88062</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/mala-charco-del-palo/</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Mala (Charco del Palo)</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>29.08341, -13.44944</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/the-elevator-skulls-cave/</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>The Elevator (Skulls Cave)</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>29.07635, -13.45293</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-hu-shun-yu-809/</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Hundimiento Hu Shun Yu #809</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>-42.76919, -65.00602</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-urabain/</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Hundimiento Urabain</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>-42.77411, -65.00971</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-miralles/</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Hundimiento Miralles</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>-42.78054, -64.96937</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-albatros/</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Hundimiento Albatros</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>-42.77216, -65.00988</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/mushroom-forest-2/</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Mushroom Forest</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>12.28756, -69.22014</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/punta-cuevas/</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Punta Cuevas</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>-42.77776, -64.99855</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/parque-las-piedras/</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Parque las Piedras</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>-42.73453, -65.03078</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/naufragio-emma/</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Naufragio Emma</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>-42.76545, -65.02288</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/parque-nuevo/</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Parque Nuevo</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>-42.77036, -65.02162</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/lakeview-rv-park/</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Lakeview RV Park</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>39.68429, -82.56486</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/tambuli-aeroplane-wreck/</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Tambuli Aeroplane Wreck</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>10.28866, 124.00975</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Wreck,, Wall</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/57/7f/577fe3796daa9a3662cb0ea24f05373f.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/tauchsportcenter-wassermann/</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Tauchsportcenter Wassermann</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>52.05513, 11.84124</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/el-cabron-the-table-top/</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>El Cabrón - The Table Top</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>27.87401, -15.38208</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Cave,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/54/8f/548fbf33fb557ae6e9ec92119d3cab0c.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/austria/tschollankofel/</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Tschöllankofel</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>46.70520, 13.36384</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/4c/58/4c58583f7fd8f22798fd29f7c069ead3.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/marmorerasee/</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Marmorerasee</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>46.48883, 9.64146</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/rietli-goldach/</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Rietli Goldach</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>47.48524, 9.47748</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/el-condecito/</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>El Condecito</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>28.00240, -16.70068</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/5d/e4/5de41d67d96c6d7ea2967c9be3975df5.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/coral-habitat/</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Coral Habitat</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>12.19775, -69.07897</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/rif-st-marie/</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Rif St Marie</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>12.19846, -69.07908</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/red-coral-playa-chica-wall/</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Red Coral (Playa Chica Wall)</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>28.91812, -13.66918</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/6b/0c/6b0c789039137a9f0de729a2ddcac855.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/loberia-punta-loma/</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Loberia Punta Loma</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>-42.82471, -64.88062</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/mala-charco-del-palo/</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Mala (Charco del Palo)</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>29.08341, -13.44944</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/the-elevator-skulls-cave/</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>The Elevator (Skulls Cave)</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>29.07635, -13.45293</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-hu-shun-yu-809/</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Hundimiento Hu Shun Yu #809</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>-42.76919, -65.00602</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-urabain/</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Hundimiento Urabain</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>-42.77411, -65.00971</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-miralles/</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Hundimiento Miralles</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>-42.78054, -64.96937</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/hundimiento-albatros/</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Hundimiento Albatros</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>-42.77216, -65.00988</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/curacao/mushroom-forest-2/</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Mushroom Forest</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>12.28756, -69.22014</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/punta-cuevas/</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Punta Cuevas</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>-42.77776, -64.99855</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/parque-las-piedras/</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Parque las Piedras</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>-42.73453, -65.03078</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/naufragio-emma/</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Naufragio Emma</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>-42.76545, -65.02288</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/argentina/parque-nuevo/</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Parque Nuevo</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>-42.77036, -65.02162</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/lakeview-rv-park/</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Lakeview RV Park</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>39.68429, -82.56486</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/tambuli-aeroplane-wreck/</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Tambuli Aeroplane Wreck</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>10.28866, 124.00975</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Wreck,, Wall</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/57/7f/577fe3796daa9a3662cb0ea24f05373f.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/tauchsportcenter-wassermann/</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Tauchsportcenter Wassermann</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>52.05513, 11.84124</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/el-cabron-the-table-top/</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>El Cabrón - The Table Top</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>27.87401, -15.38208</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Cave,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/54/8f/548fbf33fb557ae6e9ec92119d3cab0c.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/playa-del-cabron-2/</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Playa del Cabrón</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>27.87178, -15.38558</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Beach,, Reef</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/15/85/1585b2de95e712ba4130aea546dfb919.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-virgin-islands/frederiksted-pier/</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Frederiksted Pier</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>17.71420, -64.88482</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/hole-in-the-wall-and-punta-de-la-monja/</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Hole in the Wall and Punta de la Monja</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>27.87214, -15.38232</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Drift,, Reef,, Wall,, Channel</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/44/da/44da84dd4fedcacdfe47d4b3a8eac31d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/canada/wreck-of-the-waome/</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Wreck of the Waome</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>45.08324, -79.50725</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Wreck,, Lake,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/indonesia/siladen-jetty/</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Siladen Jetty</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>1.62765, 124.79971</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/5f/b6/5fb60a2aa519a1e56cfe3ed86f29117d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/hermance/</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Hermance</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>46.30380, 6.24072</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Lake</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>164 feet / 50 meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/lands-end-2/</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Land's End</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>22.87594, -109.89274</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Wreck,, Reef,, Wall,, Channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/mexico/neptunes-finger/</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Neptune's Finger</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>22.87746, -109.89519</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/china/ansell-point/</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Ansell Point</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>49.39924, 123.25235</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-of-america-usa/negro-bar-rainbow-bridge/</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Negro Bar/ Rainbow Bridge</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>38.67961, -121.18153</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Drift,, River</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-states-virgin-islands/scotch-bank/</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Scotch Bank</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>17.76863, -64.69122</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/new-zealand/canterbury-wreck/</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Canterbury Wreck</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>-35.19371, 174.29472</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/65/9b/659b527254839f90e1b56359de02b26e.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/new-zealand/rainbow-warrior-wreck-2/</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Rainbow Warrior Wreck</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>-34.97417, 173.93371</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/f9/01/f9018f932717507bc302350d3104b060.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/magic-island-house-reef/</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Magic Island House Reef</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>9.93252, 123.37736</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/pescador-south/</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Pescador South</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>9.92176, 123.34353</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/41/81/41819cf4817aec47316e98a056990b6d.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/sardine-ball/</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Sardine Ball</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>9.94923, 123.36490</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Reef,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/acqua-dolce/</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Acqua dolce</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>40.28593, 9.64066</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/rutenen-beckenried-2/</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Rütenen Beckenried</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>46.96340, 8.50840</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/22/2a/222a8bb70427424331441c17630e127a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/elefantli-weggis/</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Elefäntli Weggis</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>47.02153, 8.46851</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/2f/7c/2f7cc713df02b40fd657a42711196aac.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/glasi-hergiswil/</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Glasi Hergiswil</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>46.98149, 8.31185</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/holzlager-greppen/</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Holzlager Greppen</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>47.05422, 8.42712</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/lopper-i-hergiswil/</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Lopper I Hergiswil</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>46.97945, 8.32307</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/50/9e/509ec3e9a40da3a4e18b931f114a1661.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/switzerland/kindli-gersau/</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Kindli Gersau</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>46.99037, 8.55596</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/messinghausen-see-im-berg/</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Messinghausen See im Berg</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>51.38615, 8.66437</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Wreck,, Lake,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/prodive-der-tauchplatz/</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>ProDive - Der Tauchplatz</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>51.48299, 8.08456</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/7a/ea/7aea572b9eda7f4ef08df68fffcd647e.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/hallenbad-in-balve/</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Hallenbad in Balve</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>51.32683, 7.86944</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/brunei/american-wreck/</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>American Wreck</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>5.12001, 115.10548</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/malaysia/cement-wreck/</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Cement Wreck</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>5.18703, 115.08865</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/germany/taucherbucht-mohnesee/</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Taucherbucht Möhnesee</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>51.48238, 8.08505</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/brunei/labuan-wreck/</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Labuan Wreck</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>5.05504, 115.08865</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/iceland/silfra/</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Silfra</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>64.25525, -21.11688</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/31/04/3104f8c0a7c5bf733fd7843c8bfc1ec9.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/iceland/lake-kleifarvatn/</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Lake Kleifarvatn</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>63.92591, -21.97266</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Lake</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/9e/1f/9e1fd7e3baff08bd9cf6cba420d17fa1.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/brunei/abana-reef/</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Abana Reef</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>5.09282, 115.09569</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/la-morra/</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>La Morra</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>37.63917, -0.68083</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/testa/</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Testa</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>37.63944, -0.68417</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/venezuela/chichiriviche-de-la-costa/</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Chichiriviche de la costa</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>10.54756, -67.24169</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/spain/sunset-beach-2/</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Sunset Beach</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>36.58219, -4.53255</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/47/1f/471f69cf27dd0301fadb8a5dda23397a.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/tongo-point-marine-sanctuary/</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Tongo Point Marine Sanctuary</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>9.93960, 123.36994</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/papua-new-guinea/coral-garden-3/</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Coral Garden</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>-10.25556, 150.70188</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/papua-new-guinea/lauadi-or-dinahs-beach/</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Lauadi or Dinah's Beach</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>-10.25901, 150.69873</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Beach</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/3a/cb/3acbf06b60a61274cc7920aa8bc64a16.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/papua-new-guinea/barracuda-point-3/</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Barracuda Point</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>-10.25523, 150.70461</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>https://d2p1cf6997m1ir.cloudfront.net/media/thumbnails/86/c2/86c226ca473ac619f928f6b9e5150912.webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/kevins-reef/</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Kevin's Reef</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>-28.77232, 114.58551</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Reef</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/supermarket/</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Supermarket</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>-28.77827, 114.57402</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Cave,, Reef</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/explosives/</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Explosives</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>-28.77746, 114.57527</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/aquarium-reef-1/</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Aquarium Reef 1</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>-28.78394, 114.57454</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/australia/aquarium-reef-2/</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Aquarium Reef 2</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>-28.78528, 114.57410</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Cave,, Beach,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/republic-of-mauritius/kt-mawa/</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>KT Mawa</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>-20.08125, 57.48305</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Wreck</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/philippines/ronda-bay-marine-sanctuary/</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Ronda Bay Marine Sanctuary</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>9.99873, 123.37861</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Drift,, Reef,, Wall</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/bellommo/</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Bell'ommo</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>40.76286, 13.86269</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Drift,, Wall</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/mezzatorre/</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Mezzatorre</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>40.76150, 13.87247</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/nave/</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Nave</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>40.70784, 13.85410</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Cave,, Wall,, Channel</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/scannella/</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Scannella</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>40.70296, 13.86226</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/secca-della-rana/</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Secca della rana</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>40.70296, 13.86054</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/italy/punta-santangelo/</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Punta Sant'Angelo</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>40.69281, 13.89376</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Wall</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/twiske-kurejanstrand-den-ilp/</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>twiske kurejanstrand Den Ilp</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>52.45439, 4.89731</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Beach,, Lake</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/netherlands/twiske-oostzaanzijde/</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Twiske Oostzaanzijde</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>52.45051, 4.88575</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Wreck,, Beach,, Lake</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>https://www.padi.com/dive-site/united-kingdom/portland/</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>portland</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>50.56906, -2.44205</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Wreck,, Drift,, Reef</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
